--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_CO.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>955.2836850433208</v>
+        <v>298.7475553967371</v>
       </c>
       <c r="C2">
-        <v>10.25244887731455</v>
+        <v>3.206266459778222</v>
       </c>
       <c r="D2">
-        <v>91.22586842496796</v>
+        <v>28.52922708469332</v>
       </c>
       <c r="E2">
-        <v>32.24924324382596</v>
+        <v>10.08536284386647</v>
       </c>
       <c r="F2">
-        <v>32.48826684319305</v>
+        <v>10.16011311659807</v>
       </c>
       <c r="G2">
-        <v>282.7673574652131</v>
+        <v>88.43033552373163</v>
       </c>
       <c r="H2">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I2">
-        <v>1420.796097566191</v>
+        <v>444.3280750114294</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>944.4281886223746</v>
+        <v>295.3526968126832</v>
       </c>
       <c r="C3">
-        <v>10.89322693214671</v>
+        <v>3.40665811351436</v>
       </c>
       <c r="D3">
-        <v>104.2581353428206</v>
+        <v>32.60483095393523</v>
       </c>
       <c r="E3">
-        <v>31.20894507467028</v>
+        <v>9.760028558580446</v>
       </c>
       <c r="F3">
-        <v>32.76955053880511</v>
+        <v>10.24807946392792</v>
       </c>
       <c r="G3">
-        <v>317.7488862237961</v>
+        <v>99.37017084625511</v>
       </c>
       <c r="H3">
-        <v>17.50153517825839</v>
+        <v>5.473286032261277</v>
       </c>
       <c r="I3">
-        <v>1458.808467912872</v>
+        <v>456.2157507811576</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1067.638073000121</v>
+        <v>333.884341741694</v>
       </c>
       <c r="C4">
-        <v>11.10681961709077</v>
+        <v>3.473455331426407</v>
       </c>
       <c r="D4">
-        <v>113.3807221853173</v>
+        <v>35.45775366240458</v>
       </c>
       <c r="E4">
-        <v>36.41043592044867</v>
+        <v>11.38669998501052</v>
       </c>
       <c r="F4">
-        <v>38.67650814665839</v>
+        <v>12.09537275785484</v>
       </c>
       <c r="G4">
-        <v>241.9555739135326</v>
+        <v>75.66719431412091</v>
       </c>
       <c r="H4">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I4">
-        <v>1518.891207882201</v>
+        <v>475.0055322548786</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1152.310945083506</v>
+        <v>360.364238697314</v>
       </c>
       <c r="C5">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D5">
-        <v>115.9871755688879</v>
+        <v>36.27287443625293</v>
       </c>
       <c r="E5">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F5">
-        <v>33.61340162564129</v>
+        <v>10.51197850591748</v>
       </c>
       <c r="G5">
-        <v>163.2471342067209</v>
+        <v>51.052564838443</v>
       </c>
       <c r="H5">
-        <v>6.806152569322708</v>
+        <v>2.128500123657163</v>
       </c>
       <c r="I5">
-        <v>1517.504399915992</v>
+        <v>474.5718333482646</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1399.273488660047</v>
+        <v>437.5972714845387</v>
       </c>
       <c r="C6">
-        <v>10.4660415622586</v>
+        <v>3.273063677690268</v>
       </c>
       <c r="D6">
-        <v>82.10328158247117</v>
+        <v>25.67630437622399</v>
       </c>
       <c r="E6">
-        <v>71.78057367174166</v>
+        <v>22.44806568473503</v>
       </c>
       <c r="F6">
-        <v>24.04975597483122</v>
+        <v>7.521122696702469</v>
       </c>
       <c r="G6">
-        <v>90.36894929300624</v>
+        <v>28.26124124985237</v>
       </c>
       <c r="H6">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I6">
-        <v>1698.460548452324</v>
+        <v>531.1625695407143</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1397.102389375857</v>
+        <v>436.918299767728</v>
       </c>
       <c r="C7">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D7">
-        <v>58.64520113033655</v>
+        <v>18.34021741158856</v>
       </c>
       <c r="E7">
-        <v>79.0626608558314</v>
+        <v>24.72540568173714</v>
       </c>
       <c r="F7">
-        <v>13.78290108499099</v>
+        <v>4.310351019162819</v>
       </c>
       <c r="G7">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H7">
-        <v>11.66769011883893</v>
+        <v>3.64885735484085</v>
       </c>
       <c r="I7">
-        <v>1609.754756007573</v>
+        <v>503.421450271837</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>975.90912824312</v>
+        <v>305.1977867064393</v>
       </c>
       <c r="C8">
-        <v>5.980595178433489</v>
+        <v>1.870322101537296</v>
       </c>
       <c r="D8">
-        <v>50.82584097962502</v>
+        <v>15.89485509004342</v>
       </c>
       <c r="E8">
-        <v>50.97461028862813</v>
+        <v>15.94137997901473</v>
       </c>
       <c r="F8">
-        <v>10.54813858545229</v>
+        <v>3.298738024869504</v>
       </c>
       <c r="G8">
-        <v>52.47229313787455</v>
+        <v>16.40975298378525</v>
       </c>
       <c r="H8">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I8">
-        <v>1147.682913923037</v>
+        <v>358.9169063319263</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>796.793437297497</v>
+        <v>249.1826200695511</v>
       </c>
       <c r="C9">
-        <v>5.339817123601328</v>
+        <v>1.669930447801157</v>
       </c>
       <c r="D9">
-        <v>36.4903473699872</v>
+        <v>11.41169083387733</v>
       </c>
       <c r="E9">
-        <v>75.94176634836435</v>
+        <v>23.74940282587909</v>
       </c>
       <c r="F9">
-        <v>6.04759945565931</v>
+        <v>1.891276467591849</v>
       </c>
       <c r="G9">
-        <v>29.15127396548587</v>
+        <v>9.116529435436249</v>
       </c>
       <c r="H9">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I9">
-        <v>952.6811640903047</v>
+        <v>297.9336644188469</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>589.453455657413</v>
+        <v>184.340821114123</v>
       </c>
       <c r="C10">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D10">
-        <v>28.67098721927565</v>
+        <v>8.966328512332186</v>
       </c>
       <c r="E10">
-        <v>49.93431211947244</v>
+        <v>15.61604569372872</v>
       </c>
       <c r="F10">
-        <v>5.485032064435189</v>
+        <v>1.715343772932142</v>
       </c>
       <c r="G10">
-        <v>29.15127396548587</v>
+        <v>9.116529435436249</v>
       </c>
       <c r="H10">
-        <v>3.889230039612976</v>
+        <v>1.21628578494695</v>
       </c>
       <c r="I10">
-        <v>710.428959394688</v>
+        <v>222.1737042359161</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>452.1314259324355</v>
+        <v>141.395860025842</v>
       </c>
       <c r="C11">
-        <v>6.19418786337754</v>
+        <v>1.937119319449342</v>
       </c>
       <c r="D11">
-        <v>28.67098721927565</v>
+        <v>8.966328512332186</v>
       </c>
       <c r="E11">
-        <v>22.88655972142488</v>
+        <v>7.157354276292326</v>
       </c>
       <c r="F11">
-        <v>5.625673912241219</v>
+        <v>1.759326946597069</v>
       </c>
       <c r="G11">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H11">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I11">
-        <v>562.1526681266934</v>
+        <v>175.8029975723775</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>278.4434831972863</v>
+        <v>87.07812268098077</v>
       </c>
       <c r="C12">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D12">
-        <v>6.516133458926285</v>
+        <v>2.037801934620952</v>
       </c>
       <c r="E12">
-        <v>8.322385353245407</v>
+        <v>2.602674282288119</v>
       </c>
       <c r="F12">
-        <v>3.375404347344732</v>
+        <v>1.05559616795824</v>
       </c>
       <c r="G12">
-        <v>46.64203834477738</v>
+        <v>14.586447096698</v>
       </c>
       <c r="I12">
-        <v>349.0664471950695</v>
+        <v>109.1641670461713</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>173.6879427351492</v>
+        <v>54.31773734486125</v>
       </c>
       <c r="C13">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D13">
-        <v>5.212906767141028</v>
+        <v>1.630241547696761</v>
       </c>
       <c r="E13">
-        <v>4.161192676622703</v>
+        <v>1.30133714114406</v>
       </c>
       <c r="F13">
-        <v>4.500539129792976</v>
+        <v>1.407461557277655</v>
       </c>
       <c r="G13">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H13">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I13">
-        <v>239.3103583699917</v>
+        <v>74.83995138146837</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>109.0977390305157</v>
+        <v>34.11832876974099</v>
       </c>
       <c r="C14">
-        <v>5.767002493489435</v>
+        <v>1.80352488362525</v>
       </c>
       <c r="D14">
-        <v>5.212906767141028</v>
+        <v>1.630241547696761</v>
       </c>
       <c r="E14">
-        <v>3.120894507467028</v>
+        <v>0.9760028558580448</v>
       </c>
       <c r="F14">
-        <v>3.797329890762824</v>
+        <v>1.187545688953021</v>
       </c>
       <c r="G14">
-        <v>93.28407668955477</v>
+        <v>29.17289419339599</v>
       </c>
       <c r="H14">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I14">
-        <v>221.252256888834</v>
+        <v>69.1926093855068</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>80.8734483360539</v>
+        <v>25.29169645120103</v>
       </c>
       <c r="C15">
-        <v>3.631075644048903</v>
+        <v>1.135552704504787</v>
       </c>
       <c r="D15">
-        <v>3.90968007535577</v>
+        <v>1.222681160772571</v>
       </c>
       <c r="F15">
-        <v>2.531553260508549</v>
+        <v>0.7916971259686811</v>
       </c>
       <c r="G15">
-        <v>72.87818491371472</v>
+        <v>22.79132358859063</v>
       </c>
       <c r="H15">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I15">
-        <v>165.7685572494883</v>
+        <v>51.84109392351116</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>85.21564690443262</v>
+        <v>26.64963988482256</v>
       </c>
       <c r="C16">
-        <v>1.922334164496478</v>
+        <v>0.6011749612084164</v>
       </c>
       <c r="D16">
-        <v>13.03226691785257</v>
+        <v>4.075603869241903</v>
       </c>
       <c r="E16">
-        <v>5.20149084577838</v>
+        <v>1.626671426430074</v>
       </c>
       <c r="F16">
-        <v>2.95347880392664</v>
+        <v>0.923646646963461</v>
       </c>
       <c r="G16">
-        <v>84.53869449990907</v>
+        <v>26.43793536276512</v>
       </c>
       <c r="H16">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I16">
-        <v>193.836219646299</v>
+        <v>60.61874359766828</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>194.8561607559956</v>
+        <v>60.93771158376626</v>
       </c>
       <c r="C17">
-        <v>1.922334164496478</v>
+        <v>0.6011749612084164</v>
       </c>
       <c r="D17">
-        <v>13.03226691785257</v>
+        <v>4.075603869241903</v>
       </c>
       <c r="E17">
-        <v>3.120894507467028</v>
+        <v>0.9760028558580448</v>
       </c>
       <c r="F17">
-        <v>5.344390216629159</v>
+        <v>1.671360599267215</v>
       </c>
       <c r="G17">
-        <v>113.6899684653949</v>
+        <v>35.55446479820137</v>
       </c>
       <c r="H17">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I17">
-        <v>333.9106300476423</v>
+        <v>104.4244615600167</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>415.7655129222637</v>
+        <v>130.0230837692617</v>
       </c>
       <c r="C18">
-        <v>3.203890274160797</v>
+        <v>1.001958268680694</v>
       </c>
       <c r="D18">
-        <v>27.36776052749039</v>
+        <v>8.558768125407997</v>
       </c>
       <c r="E18">
-        <v>35.37013775129299</v>
+        <v>11.06136569972451</v>
       </c>
       <c r="F18">
-        <v>12.37648260693068</v>
+        <v>3.870519282513551</v>
       </c>
       <c r="G18">
-        <v>148.671497223978</v>
+        <v>46.49430012072487</v>
       </c>
       <c r="H18">
-        <v>5.833845059419463</v>
+        <v>1.824428677420425</v>
       </c>
       <c r="I18">
-        <v>648.589126365536</v>
+        <v>202.8344239437338</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>725.1471609192481</v>
+        <v>226.7765534147958</v>
       </c>
       <c r="C19">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D19">
-        <v>71.67746804818913</v>
+        <v>22.41582128083046</v>
       </c>
       <c r="E19">
-        <v>96.74772973147789</v>
+        <v>30.25608853159937</v>
       </c>
       <c r="F19">
-        <v>22.78397934457693</v>
+        <v>7.125274133718129</v>
       </c>
       <c r="G19">
-        <v>209.8891725514982</v>
+        <v>65.63901193514101</v>
       </c>
       <c r="H19">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I19">
-        <v>1139.813254023016</v>
+        <v>356.4558136808689</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1234.812717882702</v>
+        <v>386.1651639361231</v>
       </c>
       <c r="C20">
-        <v>4.271853698881062</v>
+        <v>1.335944358240926</v>
       </c>
       <c r="D20">
-        <v>88.6194150413975</v>
+        <v>27.71410631084495</v>
       </c>
       <c r="E20">
-        <v>94.66713339316652</v>
+        <v>29.60541996102735</v>
       </c>
       <c r="F20">
-        <v>25.87809999630962</v>
+        <v>8.09290395434652</v>
       </c>
       <c r="G20">
-        <v>288.5976122583102</v>
+        <v>90.25364141081884</v>
       </c>
       <c r="H20">
-        <v>19.44615019806488</v>
+        <v>6.081428924734753</v>
       </c>
       <c r="I20">
-        <v>1756.292982468832</v>
+        <v>549.2486088561365</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1301.574020871524</v>
+        <v>407.0435442280544</v>
       </c>
       <c r="C21">
-        <v>6.407780548321593</v>
+        <v>2.003916537361389</v>
       </c>
       <c r="D21">
-        <v>70.37424135640389</v>
+        <v>22.00826089390629</v>
       </c>
       <c r="E21">
-        <v>65.53878465680759</v>
+        <v>20.49605997301894</v>
       </c>
       <c r="F21">
-        <v>22.36205380115884</v>
+        <v>6.993324612723348</v>
       </c>
       <c r="G21">
-        <v>236.1253191204357</v>
+        <v>73.84388842703363</v>
       </c>
       <c r="H21">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I21">
-        <v>1715.994505493298</v>
+        <v>536.6459949194123</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1047.012629800322</v>
+        <v>327.4341104319918</v>
       </c>
       <c r="C22">
-        <v>9.184485452594283</v>
+        <v>2.87228037021799</v>
       </c>
       <c r="D22">
-        <v>122.5033090278141</v>
+        <v>38.31067637087388</v>
       </c>
       <c r="E22">
-        <v>50.97461028862813</v>
+        <v>15.94137997901473</v>
       </c>
       <c r="F22">
-        <v>37.55137336421015</v>
+        <v>11.74350736853544</v>
       </c>
       <c r="G22">
-        <v>416.863217706448</v>
+        <v>130.3663709267384</v>
       </c>
       <c r="H22">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I22">
-        <v>1700.618853308372</v>
+        <v>531.8375400333966</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>822.3038538867225</v>
+        <v>257.1605377420777</v>
       </c>
       <c r="C23">
-        <v>9.184485452594283</v>
+        <v>2.87228037021799</v>
       </c>
       <c r="D23">
-        <v>99.04522857567954</v>
+        <v>30.97458940623847</v>
       </c>
       <c r="E23">
-        <v>31.20894507467028</v>
+        <v>9.760028558580446</v>
       </c>
       <c r="F23">
-        <v>36.98880597298603</v>
+        <v>11.56757467387573</v>
       </c>
       <c r="G23">
-        <v>405.2027081202536</v>
+        <v>126.7197591525639</v>
       </c>
       <c r="H23">
-        <v>9.723075099032439</v>
+        <v>3.040714462367376</v>
       </c>
       <c r="I23">
-        <v>1413.657102181939</v>
+        <v>442.0954843659217</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>934.1154670224749</v>
+        <v>292.1275811578321</v>
       </c>
       <c r="C24">
-        <v>9.398078137538336</v>
+        <v>2.939077588130036</v>
       </c>
       <c r="D24">
-        <v>102.9549086510353</v>
+        <v>32.19727056701104</v>
       </c>
       <c r="E24">
-        <v>47.85371578116111</v>
+        <v>14.96537712315668</v>
       </c>
       <c r="F24">
-        <v>38.39522445104632</v>
+        <v>12.00740641052499</v>
       </c>
       <c r="G24">
-        <v>358.5606697754761</v>
+        <v>112.1333120558659</v>
       </c>
       <c r="H24">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I24">
-        <v>1511.6965215267</v>
+        <v>472.7555252734923</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>896.1212295491611</v>
+        <v>280.2455761136435</v>
       </c>
       <c r="C25">
-        <v>8.757300082706179</v>
+        <v>2.738685934393897</v>
       </c>
       <c r="D25">
-        <v>74.28392143175964</v>
+        <v>23.23094205467885</v>
       </c>
       <c r="E25">
-        <v>45.77311944284975</v>
+        <v>14.31470855258465</v>
       </c>
       <c r="F25">
-        <v>25.87809999630962</v>
+        <v>8.09290395434652</v>
       </c>
       <c r="G25">
-        <v>314.8337588272475</v>
+        <v>98.45851790271152</v>
       </c>
       <c r="H25">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I25">
-        <v>1378.287426958776</v>
+        <v>431.0342633134365</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>901.5489777596343</v>
+        <v>281.9430054056705</v>
       </c>
       <c r="C26">
-        <v>7.689336657985911</v>
+        <v>2.404699844833666</v>
       </c>
       <c r="D26">
-        <v>70.37424135640389</v>
+        <v>22.00826089390629</v>
       </c>
       <c r="E26">
-        <v>32.24924324382596</v>
+        <v>10.08536284386647</v>
       </c>
       <c r="F26">
-        <v>32.91019238661113</v>
+        <v>10.29206263759285</v>
       </c>
       <c r="G26">
-        <v>329.4093958099904</v>
+        <v>103.0167826204296</v>
       </c>
       <c r="H26">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I26">
-        <v>1394.59984492242</v>
+        <v>436.1356746172709</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>972.1097044957885</v>
+        <v>304.0095862020204</v>
       </c>
       <c r="C27">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D27">
-        <v>112.0774954935321</v>
+        <v>35.05019327548036</v>
       </c>
       <c r="E27">
-        <v>46.81341761200542</v>
+        <v>14.64004283787067</v>
       </c>
       <c r="F27">
-        <v>31.78505760416289</v>
+        <v>9.940197248273439</v>
       </c>
       <c r="G27">
-        <v>256.5312108962758</v>
+        <v>80.22545903183899</v>
       </c>
       <c r="H27">
-        <v>14.58461264854866</v>
+        <v>4.561071693551064</v>
       </c>
       <c r="I27">
-        <v>1442.231613463131</v>
+        <v>451.0316417876047</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>998.7056707271089</v>
+        <v>312.3269897329523</v>
       </c>
       <c r="C28">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D28">
-        <v>115.9871755688879</v>
+        <v>36.27287443625293</v>
       </c>
       <c r="E28">
-        <v>37.45073408960434</v>
+        <v>11.71203427029653</v>
       </c>
       <c r="F28">
-        <v>31.08184836513273</v>
+        <v>9.720281379948807</v>
       </c>
       <c r="G28">
-        <v>303.173249241053</v>
+        <v>94.81190612853702</v>
       </c>
       <c r="H28">
-        <v>14.58461264854866</v>
+        <v>4.561071693551064</v>
       </c>
       <c r="I28">
-        <v>1508.245441928433</v>
+        <v>471.6762630505483</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1152.853719904554</v>
+        <v>360.5339816265168</v>
       </c>
       <c r="C29">
-        <v>7.048558603153753</v>
+        <v>2.204308191097527</v>
       </c>
       <c r="D29">
-        <v>87.31618834961222</v>
+        <v>27.30654592392076</v>
       </c>
       <c r="E29">
-        <v>50.97461028862813</v>
+        <v>15.94137997901473</v>
       </c>
       <c r="F29">
-        <v>29.11286249584832</v>
+        <v>9.104516948639834</v>
       </c>
       <c r="G29">
-        <v>206.9740451549497</v>
+        <v>64.7273589915974</v>
       </c>
       <c r="H29">
-        <v>18.47384268816164</v>
+        <v>5.777357478498015</v>
       </c>
       <c r="I29">
-        <v>1552.753827484907</v>
+        <v>485.5954491392851</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1378.1052706392</v>
+        <v>430.9772972456337</v>
       </c>
       <c r="C30">
-        <v>5.980595178433489</v>
+        <v>1.870322101537296</v>
       </c>
       <c r="D30">
-        <v>89.9226417331827</v>
+        <v>28.12166669776912</v>
       </c>
       <c r="E30">
-        <v>71.78057367174166</v>
+        <v>22.44806568473503</v>
       </c>
       <c r="F30">
-        <v>25.17489075727945</v>
+        <v>7.872988086021881</v>
       </c>
       <c r="G30">
-        <v>125.3504780515892</v>
+        <v>39.20107657237588</v>
       </c>
       <c r="H30">
-        <v>11.66769011883893</v>
+        <v>3.64885735484085</v>
       </c>
       <c r="I30">
-        <v>1707.982140150266</v>
+        <v>534.1402737429137</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1439.981600238598</v>
+        <v>450.3279911747404</v>
       </c>
       <c r="C31">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D31">
-        <v>74.28392143175964</v>
+        <v>23.23094205467885</v>
       </c>
       <c r="E31">
-        <v>83.22385353245407</v>
+        <v>26.02674282288118</v>
       </c>
       <c r="F31">
-        <v>18.14279836697794</v>
+        <v>5.673829402775547</v>
       </c>
       <c r="G31">
-        <v>58.30254793097175</v>
+        <v>18.2330588708725</v>
       </c>
       <c r="H31">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I31">
-        <v>1683.141487808665</v>
+        <v>526.3718126274315</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1085.006867273636</v>
+        <v>339.3161154761803</v>
       </c>
       <c r="C32">
-        <v>3.844668328992956</v>
+        <v>1.202349922416833</v>
       </c>
       <c r="D32">
-        <v>50.82584097962502</v>
+        <v>15.89485509004342</v>
       </c>
       <c r="E32">
-        <v>58.25669747271786</v>
+        <v>18.21871997601684</v>
       </c>
       <c r="F32">
-        <v>10.54813858545229</v>
+        <v>3.298738024869504</v>
       </c>
       <c r="G32">
-        <v>75.79331231026325</v>
+        <v>23.70297653213425</v>
       </c>
       <c r="H32">
-        <v>4.861537549516219</v>
+        <v>1.520357231183688</v>
       </c>
       <c r="I32">
-        <v>1289.137062500204</v>
+        <v>403.1541122528449</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>844.5576215496636</v>
+        <v>264.119997839388</v>
       </c>
       <c r="C33">
-        <v>6.834965918209701</v>
+        <v>2.137510973185481</v>
       </c>
       <c r="D33">
-        <v>53.43229436319555</v>
+        <v>16.70997586389181</v>
       </c>
       <c r="E33">
-        <v>75.94176634836435</v>
+        <v>23.74940282587909</v>
       </c>
       <c r="F33">
-        <v>9.141720107391977</v>
+        <v>2.858906288220236</v>
       </c>
       <c r="G33">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H33">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I33">
-        <v>1036.552201764764</v>
+        <v>324.1628022824292</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>679.5540759512716</v>
+        <v>212.5181473617697</v>
       </c>
       <c r="C34">
-        <v>4.699039068769168</v>
+        <v>1.469538794065018</v>
       </c>
       <c r="D34">
-        <v>43.00648082891345</v>
+        <v>13.44949276849828</v>
       </c>
       <c r="E34">
-        <v>48.89401395031678</v>
+        <v>15.2907114084427</v>
       </c>
       <c r="F34">
-        <v>5.203748368823128</v>
+        <v>1.627377425602288</v>
       </c>
       <c r="G34">
-        <v>40.81178355168022</v>
+        <v>12.76314120961075</v>
       </c>
       <c r="H34">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I34">
-        <v>824.1137567395808</v>
+        <v>257.7265518604622</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>483.6123655531813</v>
+        <v>151.2409499195981</v>
       </c>
       <c r="C35">
-        <v>6.407780548321593</v>
+        <v>2.003916537361389</v>
       </c>
       <c r="D35">
-        <v>32.58066729463143</v>
+        <v>10.18900967310476</v>
       </c>
       <c r="E35">
-        <v>29.12834873635893</v>
+        <v>9.109359988008418</v>
       </c>
       <c r="F35">
-        <v>4.500539129792976</v>
+        <v>1.407461557277655</v>
       </c>
       <c r="G35">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H35">
-        <v>2.916922529709732</v>
+        <v>0.9122143387102126</v>
       </c>
       <c r="I35">
-        <v>602.8735347402247</v>
+        <v>188.5377061672148</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>288.7562047971857</v>
+        <v>90.30323833583186</v>
       </c>
       <c r="C36">
-        <v>8.330114712818071</v>
+        <v>2.605091498569805</v>
       </c>
       <c r="D36">
-        <v>11.72904022606731</v>
+        <v>3.668043482317712</v>
       </c>
       <c r="E36">
-        <v>17.68506887564649</v>
+        <v>5.530682849862253</v>
       </c>
       <c r="F36">
-        <v>4.219255434180914</v>
+        <v>1.319495209947801</v>
       </c>
       <c r="G36">
-        <v>32.06640136203448</v>
+        <v>10.02818237897987</v>
       </c>
       <c r="H36">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I36">
-        <v>363.7583929178362</v>
+        <v>113.7588052017461</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>231.2220737661675</v>
+        <v>72.31048784034657</v>
       </c>
       <c r="C37">
-        <v>6.19418786337754</v>
+        <v>1.937119319449342</v>
       </c>
       <c r="D37">
-        <v>10.42581353428206</v>
+        <v>3.260483095393523</v>
       </c>
       <c r="E37">
-        <v>11.44327986071244</v>
+        <v>3.578677138146163</v>
       </c>
       <c r="F37">
-        <v>3.937971738568854</v>
+        <v>1.231528862617948</v>
       </c>
       <c r="G37">
-        <v>37.89665615513162</v>
+        <v>11.85148826606713</v>
       </c>
       <c r="H37">
-        <v>4.861537549516219</v>
+        <v>1.520357231183688</v>
       </c>
       <c r="I37">
-        <v>305.9815204677563</v>
+        <v>95.69014175320436</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>121.5815599146045</v>
+        <v>38.02241614140289</v>
       </c>
       <c r="C38">
-        <v>7.262151288097806</v>
+        <v>2.271105409009574</v>
       </c>
       <c r="D38">
-        <v>7.819360150711541</v>
+        <v>2.445362321545142</v>
       </c>
       <c r="E38">
-        <v>2.080596338311352</v>
+        <v>0.6506685705720299</v>
       </c>
       <c r="F38">
-        <v>3.656688042956793</v>
+        <v>1.143562515288095</v>
       </c>
       <c r="G38">
-        <v>64.13280272406895</v>
+        <v>20.05636475795975</v>
       </c>
       <c r="H38">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I38">
-        <v>207.5054659686542</v>
+        <v>64.89355116201421</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>80.33067351500657</v>
+        <v>25.12195352199833</v>
       </c>
       <c r="C39">
-        <v>4.058261013937011</v>
+        <v>1.269147140328879</v>
       </c>
       <c r="D39">
-        <v>7.819360150711541</v>
+        <v>2.445362321545142</v>
       </c>
       <c r="E39">
-        <v>2.080596338311352</v>
+        <v>0.6506685705720299</v>
       </c>
       <c r="F39">
-        <v>2.250269564896488</v>
+        <v>0.7037307786388276</v>
       </c>
       <c r="G39">
-        <v>43.72691094822881</v>
+        <v>13.67479415315437</v>
       </c>
       <c r="H39">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I39">
-        <v>141.238379040995</v>
+        <v>44.16972793247432</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>80.33067351500657</v>
+        <v>25.12195352199833</v>
       </c>
       <c r="C40">
-        <v>2.563112219328637</v>
+        <v>0.8015666149445554</v>
       </c>
       <c r="D40">
-        <v>9.1225868424968</v>
+        <v>2.852922708469332</v>
       </c>
       <c r="E40">
-        <v>6.241789014934056</v>
+        <v>1.95200571171609</v>
       </c>
       <c r="F40">
-        <v>3.797329890762824</v>
+        <v>1.187545688953021</v>
       </c>
       <c r="G40">
-        <v>69.96305751716608</v>
+        <v>21.879670645047</v>
       </c>
       <c r="H40">
-        <v>0.972307509903244</v>
+        <v>0.3040714462367375</v>
       </c>
       <c r="I40">
-        <v>172.9908565095982</v>
+        <v>54.09973633736508</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>185.0862139771435</v>
+        <v>57.88233885811783</v>
       </c>
       <c r="C41">
-        <v>2.135926849440531</v>
+        <v>0.6679721791204629</v>
       </c>
       <c r="D41">
-        <v>22.15485376034938</v>
+        <v>6.928526577711237</v>
       </c>
       <c r="E41">
-        <v>6.241789014934056</v>
+        <v>1.95200571171609</v>
       </c>
       <c r="F41">
-        <v>5.90695760785328</v>
+        <v>1.847293293926922</v>
       </c>
       <c r="G41">
-        <v>134.095860241235</v>
+        <v>41.93603540300674</v>
       </c>
       <c r="H41">
-        <v>1.944615019806488</v>
+        <v>0.6081428924734751</v>
       </c>
       <c r="I41">
-        <v>357.5662164707622</v>
+        <v>111.8223149160728</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>392.9689704382756</v>
+        <v>122.8938807427486</v>
       </c>
       <c r="C42">
-        <v>0.6407780548321593</v>
+        <v>0.2003916537361388</v>
       </c>
       <c r="D42">
-        <v>29.9742139110609</v>
+        <v>9.373888899256382</v>
       </c>
       <c r="E42">
-        <v>41.61192676622704</v>
+        <v>13.01337141144059</v>
       </c>
       <c r="F42">
-        <v>11.81391521570656</v>
+        <v>3.694586587853844</v>
       </c>
       <c r="G42">
-        <v>148.671497223978</v>
+        <v>46.49430012072487</v>
       </c>
       <c r="H42">
-        <v>3.889230039612976</v>
+        <v>1.21628578494695</v>
       </c>
       <c r="I42">
-        <v>629.5705316496932</v>
+        <v>196.8867052007074</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>727.8610350244851</v>
+        <v>227.6252680608093</v>
       </c>
       <c r="C43">
-        <v>2.990297589216744</v>
+        <v>0.935161050768648</v>
       </c>
       <c r="D43">
-        <v>72.9806947399744</v>
+        <v>22.82338166775466</v>
       </c>
       <c r="E43">
-        <v>99.86862423894489</v>
+        <v>31.23209138745743</v>
       </c>
       <c r="F43">
-        <v>25.59681630069755</v>
+        <v>8.004937607016664</v>
       </c>
       <c r="G43">
-        <v>206.9740451549497</v>
+        <v>64.7273589915974</v>
       </c>
       <c r="H43">
-        <v>13.61230513864542</v>
+        <v>4.257000247314326</v>
       </c>
       <c r="I43">
-        <v>1149.883818186914</v>
+        <v>359.6051990127184</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1231.013294135372</v>
+        <v>384.9769634317043</v>
       </c>
       <c r="C44">
-        <v>2.563112219328637</v>
+        <v>0.8015666149445554</v>
       </c>
       <c r="D44">
-        <v>84.70973496604172</v>
+        <v>26.49142515007237</v>
       </c>
       <c r="E44">
-        <v>116.5133949454357</v>
+        <v>36.43743995203367</v>
       </c>
       <c r="F44">
-        <v>27.28451847436991</v>
+        <v>8.532735690995784</v>
       </c>
       <c r="G44">
-        <v>285.6824848617616</v>
+        <v>89.34198846727527</v>
       </c>
       <c r="H44">
-        <v>20.41845770796812</v>
+        <v>6.385500370971489</v>
       </c>
       <c r="I44">
-        <v>1768.184997310277</v>
+        <v>552.9676196779974</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1392.217415986431</v>
+        <v>435.3906134049037</v>
       </c>
       <c r="C45">
-        <v>7.475743973041859</v>
+        <v>2.33790262692162</v>
       </c>
       <c r="D45">
-        <v>102.9549086510353</v>
+        <v>32.19727056701104</v>
       </c>
       <c r="E45">
-        <v>83.22385353245407</v>
+        <v>26.02674282288118</v>
       </c>
       <c r="F45">
-        <v>30.80056466952068</v>
+        <v>9.632315032618951</v>
       </c>
       <c r="G45">
-        <v>311.9186314306989</v>
+        <v>97.54686495916785</v>
       </c>
       <c r="H45">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I45">
-        <v>1945.120345911537</v>
+        <v>608.3009239995289</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1114.85948243124</v>
+        <v>348.6519765823282</v>
       </c>
       <c r="C46">
-        <v>9.184485452594283</v>
+        <v>2.87228037021799</v>
       </c>
       <c r="D46">
-        <v>119.8968556442436</v>
+        <v>37.49555559702553</v>
       </c>
       <c r="E46">
-        <v>58.25669747271786</v>
+        <v>18.21871997601684</v>
       </c>
       <c r="F46">
-        <v>37.27008966859808</v>
+        <v>11.65554102120558</v>
       </c>
       <c r="G46">
-        <v>475.1657656374197</v>
+        <v>148.5994297976109</v>
       </c>
       <c r="H46">
-        <v>16.52922766835515</v>
+        <v>5.169214586024539</v>
       </c>
       <c r="I46">
-        <v>1831.162603975169</v>
+        <v>572.6627179304295</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>841.843747444427</v>
+        <v>263.2712831933745</v>
       </c>
       <c r="C47">
-        <v>10.25244887731455</v>
+        <v>3.206266459778222</v>
       </c>
       <c r="D47">
-        <v>88.6194150413975</v>
+        <v>27.71410631084495</v>
       </c>
       <c r="E47">
-        <v>38.49103225876003</v>
+        <v>12.03736855558255</v>
       </c>
       <c r="F47">
-        <v>39.80164292910664</v>
+        <v>12.44723814717426</v>
       </c>
       <c r="G47">
-        <v>361.475797172025</v>
+        <v>113.0449649994095</v>
       </c>
       <c r="H47">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I47">
-        <v>1393.124081351773</v>
+        <v>435.6741564672415</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>868.4397136757464</v>
+        <v>271.5886867243063</v>
       </c>
       <c r="C48">
-        <v>6.19418786337754</v>
+        <v>1.937119319449342</v>
       </c>
       <c r="D48">
-        <v>96.43877519210899</v>
+        <v>30.1594686323901</v>
       </c>
       <c r="E48">
-        <v>42.6522249353827</v>
+        <v>13.33870569672661</v>
       </c>
       <c r="F48">
-        <v>40.64549401594284</v>
+        <v>12.71113718916382</v>
       </c>
       <c r="G48">
-        <v>518.8926765856487</v>
+        <v>162.2742239507652</v>
       </c>
       <c r="H48">
-        <v>10.69538260893568</v>
+        <v>3.344785908604113</v>
       </c>
       <c r="I48">
-        <v>1583.958454877143</v>
+        <v>495.3541274214055</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>896.1212295491611</v>
+        <v>280.2455761136435</v>
       </c>
       <c r="C49">
-        <v>8.757300082706179</v>
+        <v>2.738685934393897</v>
       </c>
       <c r="D49">
-        <v>74.28392143175964</v>
+        <v>23.23094205467885</v>
       </c>
       <c r="E49">
-        <v>45.77311944284975</v>
+        <v>14.31470855258465</v>
       </c>
       <c r="F49">
-        <v>25.87809999630962</v>
+        <v>8.09290395434652</v>
       </c>
       <c r="G49">
-        <v>314.8337588272475</v>
+        <v>98.45851790271152</v>
       </c>
       <c r="H49">
-        <v>12.63999762874217</v>
+        <v>3.952928801077588</v>
       </c>
       <c r="I49">
-        <v>1378.287426958776</v>
+        <v>431.0342633134365</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_CO.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_CO.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>298.7475553967371</v>
+        <v>573.2118981430984</v>
       </c>
       <c r="C2">
-        <v>3.206266459778222</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D2">
-        <v>28.52922708469332</v>
+        <v>90.92493584664959</v>
       </c>
       <c r="E2">
-        <v>10.08536284386647</v>
+        <v>32.24924324382596</v>
       </c>
       <c r="F2">
-        <v>10.16011311659807</v>
+        <v>31.89050541081567</v>
       </c>
       <c r="G2">
-        <v>88.43033552373163</v>
+        <v>282.4769580643273</v>
       </c>
       <c r="H2">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I2">
-        <v>444.3280750114294</v>
+        <v>1037.535217254387</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>295.3526968126832</v>
+        <v>566.6981265732907</v>
       </c>
       <c r="C3">
-        <v>3.40665811351436</v>
+        <v>10.89322693214671</v>
       </c>
       <c r="D3">
-        <v>32.60483095393523</v>
+        <v>103.9142123961709</v>
       </c>
       <c r="E3">
-        <v>9.760028558580446</v>
+        <v>31.20894507467028</v>
       </c>
       <c r="F3">
-        <v>10.24807946392792</v>
+        <v>32.16661368277079</v>
       </c>
       <c r="G3">
-        <v>99.37017084625511</v>
+        <v>317.4225611238315</v>
       </c>
       <c r="H3">
-        <v>5.473286032261277</v>
+        <v>17.50153517825839</v>
       </c>
       <c r="I3">
-        <v>456.2157507811576</v>
+        <v>1079.805220961139</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>333.884341741694</v>
+        <v>640.6294338906109</v>
       </c>
       <c r="C4">
-        <v>3.473455331426407</v>
+        <v>11.10681961709077</v>
       </c>
       <c r="D4">
-        <v>35.45775366240458</v>
+        <v>113.0067059808359</v>
       </c>
       <c r="E4">
-        <v>11.38669998501052</v>
+        <v>36.41043592044867</v>
       </c>
       <c r="F4">
-        <v>12.09537275785484</v>
+        <v>37.96488739382817</v>
       </c>
       <c r="G4">
-        <v>75.66719431412091</v>
+        <v>241.7070878282387</v>
       </c>
       <c r="H4">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I4">
-        <v>475.0055322548786</v>
+        <v>1090.548445730086</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>360.364238697314</v>
+        <v>691.4368521351126</v>
       </c>
       <c r="C5">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D5">
-        <v>36.27287443625293</v>
+        <v>115.6045612907402</v>
       </c>
       <c r="E5">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F5">
-        <v>10.51197850591748</v>
+        <v>32.99493849863612</v>
       </c>
       <c r="G5">
-        <v>51.052564838443</v>
+        <v>163.0794809443538</v>
       </c>
       <c r="H5">
-        <v>2.128500123657163</v>
+        <v>6.806152569322708</v>
       </c>
       <c r="I5">
-        <v>474.5718333482646</v>
+        <v>1055.461576300079</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>437.5972714845387</v>
+        <v>839.6251553482437</v>
       </c>
       <c r="C6">
-        <v>3.273063677690268</v>
+        <v>10.4660415622586</v>
       </c>
       <c r="D6">
-        <v>25.67630437622399</v>
+        <v>81.83244226198467</v>
       </c>
       <c r="E6">
-        <v>22.44806568473503</v>
+        <v>71.78057367174166</v>
       </c>
       <c r="F6">
-        <v>7.521122696702469</v>
+        <v>23.60725725216225</v>
       </c>
       <c r="G6">
-        <v>28.26124124985237</v>
+        <v>90.276141237053</v>
       </c>
       <c r="H6">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I6">
-        <v>531.1625695407143</v>
+        <v>1138.006069041412</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>436.918299767728</v>
+        <v>838.3224010342814</v>
       </c>
       <c r="C7">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D7">
-        <v>18.34021741158856</v>
+        <v>58.45174447284617</v>
       </c>
       <c r="E7">
-        <v>24.72540568173714</v>
+        <v>79.0626608558314</v>
       </c>
       <c r="F7">
-        <v>4.310351019162819</v>
+        <v>13.52930532580059</v>
       </c>
       <c r="G7">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H7">
-        <v>3.64885735484085</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I7">
-        <v>503.421450271837</v>
+        <v>1050.482808125468</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>305.1977867064393</v>
+        <v>585.5880641257334</v>
       </c>
       <c r="C8">
-        <v>1.870322101537296</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D8">
-        <v>15.89485509004342</v>
+        <v>50.65817854313335</v>
       </c>
       <c r="E8">
-        <v>15.94137997901473</v>
+        <v>50.97461028862813</v>
       </c>
       <c r="F8">
-        <v>3.298738024869504</v>
+        <v>10.35406019831677</v>
       </c>
       <c r="G8">
-        <v>16.40975298378525</v>
+        <v>52.41840458925657</v>
       </c>
       <c r="H8">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I8">
-        <v>358.9169063319263</v>
+        <v>756.946220433405</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>249.1826200695511</v>
+        <v>478.1108332239025</v>
       </c>
       <c r="C9">
-        <v>1.669930447801157</v>
+        <v>5.339817123601328</v>
       </c>
       <c r="D9">
-        <v>11.41169083387733</v>
+        <v>36.36997433865983</v>
       </c>
       <c r="E9">
-        <v>23.74940282587909</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F9">
-        <v>1.891276467591849</v>
+        <v>5.93632784703495</v>
       </c>
       <c r="G9">
-        <v>9.116529435436249</v>
+        <v>29.12133588292033</v>
       </c>
       <c r="H9">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I9">
-        <v>297.9336644188469</v>
+        <v>633.736977294193</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>184.340821114123</v>
+        <v>353.6977962405711</v>
       </c>
       <c r="C10">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D10">
-        <v>8.966328512332186</v>
+        <v>28.57640840894702</v>
       </c>
       <c r="E10">
-        <v>15.61604569372872</v>
+        <v>49.93431211947244</v>
       </c>
       <c r="F10">
-        <v>1.715343772932142</v>
+        <v>5.384111303124721</v>
       </c>
       <c r="G10">
-        <v>9.116529435436249</v>
+        <v>29.12133588292033</v>
       </c>
       <c r="H10">
-        <v>1.21628578494695</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I10">
-        <v>222.1737042359161</v>
+        <v>474.4478623236416</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>141.395860025842</v>
+        <v>271.2985858825005</v>
       </c>
       <c r="C11">
-        <v>1.937119319449342</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D11">
-        <v>8.966328512332186</v>
+        <v>28.57640840894702</v>
       </c>
       <c r="E11">
-        <v>7.157354276292326</v>
+        <v>22.88655972142488</v>
       </c>
       <c r="F11">
-        <v>1.759326946597069</v>
+        <v>5.522165439102279</v>
       </c>
       <c r="G11">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H11">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I11">
-        <v>175.8029975723775</v>
+        <v>381.0768336694424</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>87.07812268098077</v>
+        <v>167.0782407655736</v>
       </c>
       <c r="C12">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D12">
-        <v>2.037801934620952</v>
+        <v>6.494638274760684</v>
       </c>
       <c r="E12">
-        <v>2.602674282288119</v>
+        <v>8.322385353245407</v>
       </c>
       <c r="F12">
-        <v>1.05559616795824</v>
+        <v>3.313299263461368</v>
       </c>
       <c r="G12">
-        <v>14.586447096698</v>
+        <v>46.59413741267252</v>
       </c>
       <c r="I12">
-        <v>109.1641670461713</v>
+        <v>237.569703563203</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>54.31773734486125</v>
+        <v>104.220345116927</v>
       </c>
       <c r="C13">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D13">
-        <v>1.630241547696761</v>
+        <v>5.19571061980855</v>
       </c>
       <c r="E13">
-        <v>1.30133714114406</v>
+        <v>4.161192676622703</v>
       </c>
       <c r="F13">
-        <v>1.407461557277655</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G13">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H13">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I13">
-        <v>74.83995138146837</v>
+        <v>169.6978507020775</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>34.11832876974099</v>
+        <v>65.4634042765698</v>
       </c>
       <c r="C14">
-        <v>1.80352488362525</v>
+        <v>5.767002493489435</v>
       </c>
       <c r="D14">
-        <v>1.630241547696761</v>
+        <v>5.19571061980855</v>
       </c>
       <c r="E14">
-        <v>0.9760028558580448</v>
+        <v>3.120894507467028</v>
       </c>
       <c r="F14">
-        <v>1.187545688953021</v>
+        <v>3.727461671394038</v>
       </c>
       <c r="G14">
-        <v>29.17289419339599</v>
+        <v>93.18827482534505</v>
       </c>
       <c r="H14">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I14">
-        <v>69.1926093855068</v>
+        <v>177.4350559039771</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>25.29169645120103</v>
+        <v>48.52759819506912</v>
       </c>
       <c r="C15">
-        <v>1.135552704504787</v>
+        <v>3.631075644048903</v>
       </c>
       <c r="D15">
-        <v>1.222681160772571</v>
+        <v>3.89678296485641</v>
       </c>
       <c r="F15">
-        <v>0.7916971259686811</v>
+        <v>2.484974447596026</v>
       </c>
       <c r="G15">
-        <v>22.79132358859063</v>
+        <v>72.80333970730082</v>
       </c>
       <c r="H15">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I15">
-        <v>51.84109392351116</v>
+        <v>133.2883859786778</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>26.64963988482256</v>
+        <v>51.1331068229923</v>
       </c>
       <c r="C16">
-        <v>0.6011749612084164</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D16">
-        <v>4.075603869241903</v>
+        <v>12.98927654952137</v>
       </c>
       <c r="E16">
-        <v>1.626671426430074</v>
+        <v>5.20149084577838</v>
       </c>
       <c r="F16">
-        <v>0.923646646963461</v>
+        <v>2.899136855528697</v>
       </c>
       <c r="G16">
-        <v>26.43793536276512</v>
+        <v>84.45187406046897</v>
       </c>
       <c r="H16">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I16">
-        <v>60.61874359766828</v>
+        <v>159.5695268086894</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>60.93771158376626</v>
+        <v>116.9221996780525</v>
       </c>
       <c r="C17">
-        <v>0.6011749612084164</v>
+        <v>1.922334164496478</v>
       </c>
       <c r="D17">
-        <v>4.075603869241903</v>
+        <v>12.98927654952137</v>
       </c>
       <c r="E17">
-        <v>0.9760028558580448</v>
+        <v>3.120894507467028</v>
       </c>
       <c r="F17">
-        <v>1.671360599267215</v>
+        <v>5.246057167147166</v>
       </c>
       <c r="G17">
-        <v>35.55446479820137</v>
+        <v>113.5732099433893</v>
       </c>
       <c r="H17">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I17">
-        <v>104.4244615600167</v>
+        <v>255.7185870298803</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>130.0230837692617</v>
+        <v>249.477451123644</v>
       </c>
       <c r="C18">
-        <v>1.001958268680694</v>
+        <v>3.203890274160797</v>
       </c>
       <c r="D18">
-        <v>8.558768125407997</v>
+        <v>27.27748075399487</v>
       </c>
       <c r="E18">
-        <v>11.06136569972451</v>
+        <v>35.37013775129299</v>
       </c>
       <c r="F18">
-        <v>3.870519282513551</v>
+        <v>12.14876396602501</v>
       </c>
       <c r="G18">
-        <v>46.49430012072487</v>
+        <v>148.5188130028937</v>
       </c>
       <c r="H18">
-        <v>1.824428677420425</v>
+        <v>5.833845059419463</v>
       </c>
       <c r="I18">
-        <v>202.8344239437338</v>
+        <v>481.8303819314308</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>226.7765534147958</v>
+        <v>435.1199408631702</v>
       </c>
       <c r="C19">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D19">
-        <v>22.41582128083046</v>
+        <v>71.44102102236751</v>
       </c>
       <c r="E19">
-        <v>30.25608853159937</v>
+        <v>96.74772973147789</v>
       </c>
       <c r="F19">
-        <v>7.125274133718129</v>
+        <v>22.36477002836423</v>
       </c>
       <c r="G19">
-        <v>65.63901193514101</v>
+        <v>209.6736183570263</v>
       </c>
       <c r="H19">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I19">
-        <v>356.4558136808689</v>
+        <v>848.9148234304315</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>386.1651639361231</v>
+        <v>740.9415160656525</v>
       </c>
       <c r="C20">
-        <v>1.335944358240926</v>
+        <v>4.271853698881062</v>
       </c>
       <c r="D20">
-        <v>27.71410631084495</v>
+        <v>88.32708053674533</v>
       </c>
       <c r="E20">
-        <v>29.60541996102735</v>
+        <v>94.66713339316652</v>
       </c>
       <c r="F20">
-        <v>8.09290395434652</v>
+        <v>25.40196101987048</v>
       </c>
       <c r="G20">
-        <v>90.25364141081884</v>
+        <v>288.3012252409113</v>
       </c>
       <c r="H20">
-        <v>6.081428924734753</v>
+        <v>19.44615019806488</v>
       </c>
       <c r="I20">
-        <v>549.2486088561365</v>
+        <v>1261.356920153292</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>407.0435442280544</v>
+        <v>781.0012112199718</v>
       </c>
       <c r="C21">
-        <v>2.003916537361389</v>
+        <v>6.407780548321593</v>
       </c>
       <c r="D21">
-        <v>22.00826089390629</v>
+        <v>70.14209336741541</v>
       </c>
       <c r="E21">
-        <v>20.49605997301894</v>
+        <v>65.53878465680759</v>
       </c>
       <c r="F21">
-        <v>6.993324612723348</v>
+        <v>21.95060762043157</v>
       </c>
       <c r="G21">
-        <v>73.84388842703363</v>
+        <v>235.8828206516547</v>
       </c>
       <c r="H21">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I21">
-        <v>536.6459949194123</v>
+        <v>1194.535603203248</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>327.4341104319918</v>
+        <v>628.2532679079759</v>
       </c>
       <c r="C22">
-        <v>2.87228037021799</v>
+        <v>9.184485452594283</v>
       </c>
       <c r="D22">
-        <v>38.31067637087388</v>
+        <v>122.0991995655009</v>
       </c>
       <c r="E22">
-        <v>15.94137997901473</v>
+        <v>50.97461028862813</v>
       </c>
       <c r="F22">
-        <v>11.74350736853544</v>
+        <v>36.86045430600772</v>
       </c>
       <c r="G22">
-        <v>130.3663709267384</v>
+        <v>416.4351031257607</v>
       </c>
       <c r="H22">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I22">
-        <v>531.8375400333966</v>
+        <v>1280.336348314823</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>257.1605377420777</v>
+        <v>493.4181964129514</v>
       </c>
       <c r="C23">
-        <v>2.87228037021799</v>
+        <v>9.184485452594283</v>
       </c>
       <c r="D23">
-        <v>30.97458940623847</v>
+        <v>98.71850177636246</v>
       </c>
       <c r="E23">
-        <v>9.760028558580446</v>
+        <v>31.20894507467028</v>
       </c>
       <c r="F23">
-        <v>11.56757467387573</v>
+        <v>36.3082377620975</v>
       </c>
       <c r="G23">
-        <v>126.7197591525639</v>
+        <v>404.7865687725927</v>
       </c>
       <c r="H23">
-        <v>3.040714462367376</v>
+        <v>9.723075099032439</v>
       </c>
       <c r="I23">
-        <v>442.0954843659217</v>
+        <v>1083.348010350301</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>292.1275811578321</v>
+        <v>560.5100435819732</v>
       </c>
       <c r="C24">
-        <v>2.939077588130036</v>
+        <v>9.398078137538336</v>
       </c>
       <c r="D24">
-        <v>32.19727056701104</v>
+        <v>102.6152847412188</v>
       </c>
       <c r="E24">
-        <v>14.96537712315668</v>
+        <v>47.85371578116111</v>
       </c>
       <c r="F24">
-        <v>12.00740641052499</v>
+        <v>37.68877912187307</v>
       </c>
       <c r="G24">
-        <v>112.1333120558659</v>
+        <v>358.1924313599201</v>
       </c>
       <c r="H24">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I24">
-        <v>472.7555252734923</v>
+        <v>1136.676790431653</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>280.2455761136435</v>
+        <v>537.7118430876451</v>
       </c>
       <c r="C25">
-        <v>2.738685934393897</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D25">
-        <v>23.23094205467885</v>
+        <v>74.03887633227183</v>
       </c>
       <c r="E25">
-        <v>14.31470855258465</v>
+        <v>45.77311944284975</v>
       </c>
       <c r="F25">
-        <v>8.09290395434652</v>
+        <v>25.40196101987048</v>
       </c>
       <c r="G25">
-        <v>98.45851790271152</v>
+        <v>314.5104275355395</v>
       </c>
       <c r="H25">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I25">
-        <v>431.0342633134365</v>
+        <v>1018.833525129625</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>281.9430054056705</v>
+        <v>540.968728872549</v>
       </c>
       <c r="C26">
-        <v>2.404699844833666</v>
+        <v>7.689336657985911</v>
       </c>
       <c r="D26">
-        <v>22.00826089390629</v>
+        <v>70.14209336741541</v>
       </c>
       <c r="E26">
-        <v>10.08536284386647</v>
+        <v>32.24924324382596</v>
       </c>
       <c r="F26">
-        <v>10.29206263759285</v>
+        <v>32.30466781874835</v>
       </c>
       <c r="G26">
-        <v>103.0167826204296</v>
+        <v>329.0710954769997</v>
       </c>
       <c r="H26">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I26">
-        <v>436.1356746172709</v>
+        <v>1032.843623145493</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>304.0095862020204</v>
+        <v>583.3082440763005</v>
       </c>
       <c r="C27">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D27">
-        <v>35.05019327548036</v>
+        <v>111.7077783258838</v>
       </c>
       <c r="E27">
-        <v>14.64004283787067</v>
+        <v>46.81341761200542</v>
       </c>
       <c r="F27">
-        <v>9.940197248273439</v>
+        <v>31.20023473092789</v>
       </c>
       <c r="G27">
-        <v>80.22545903183899</v>
+        <v>256.267755769699</v>
       </c>
       <c r="H27">
-        <v>4.561071693551064</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I27">
-        <v>451.0316417876047</v>
+        <v>1052.212157876183</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>312.3269897329523</v>
+        <v>599.2669844223301</v>
       </c>
       <c r="C28">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D28">
-        <v>36.27287443625293</v>
+        <v>115.6045612907402</v>
       </c>
       <c r="E28">
-        <v>11.71203427029653</v>
+        <v>37.45073408960434</v>
       </c>
       <c r="F28">
-        <v>9.720281379948807</v>
+        <v>30.5099640510401</v>
       </c>
       <c r="G28">
-        <v>94.81190612853702</v>
+        <v>302.8618931823715</v>
       </c>
       <c r="H28">
-        <v>4.561071693551064</v>
+        <v>14.58461264854866</v>
       </c>
       <c r="I28">
-        <v>471.6762630505483</v>
+        <v>1107.540900972733</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>360.5339816265168</v>
+        <v>691.7625407136032</v>
       </c>
       <c r="C29">
-        <v>2.204308191097527</v>
+        <v>7.048558603153753</v>
       </c>
       <c r="D29">
-        <v>27.30654592392076</v>
+        <v>87.0281528817932</v>
       </c>
       <c r="E29">
-        <v>15.94137997901473</v>
+        <v>50.97461028862813</v>
       </c>
       <c r="F29">
-        <v>9.104516948639834</v>
+        <v>28.57720614735429</v>
       </c>
       <c r="G29">
-        <v>64.7273589915974</v>
+        <v>206.7614847687343</v>
       </c>
       <c r="H29">
-        <v>5.777357478498015</v>
+        <v>18.47384268816164</v>
       </c>
       <c r="I29">
-        <v>485.5954491392851</v>
+        <v>1090.626396091428</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>430.9772972456337</v>
+        <v>826.923300787118</v>
       </c>
       <c r="C30">
-        <v>1.870322101537296</v>
+        <v>5.980595178433489</v>
       </c>
       <c r="D30">
-        <v>28.12166669776912</v>
+        <v>89.62600819169744</v>
       </c>
       <c r="E30">
-        <v>22.44806568473503</v>
+        <v>71.78057367174166</v>
       </c>
       <c r="F30">
-        <v>7.872988086021881</v>
+        <v>24.71169033998271</v>
       </c>
       <c r="G30">
-        <v>39.20107657237588</v>
+        <v>125.2217442965574</v>
       </c>
       <c r="H30">
-        <v>3.64885735484085</v>
+        <v>11.66769011883893</v>
       </c>
       <c r="I30">
-        <v>534.1402737429137</v>
+        <v>1155.91160258437</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>450.3279911747404</v>
+        <v>864.0517987350229</v>
       </c>
       <c r="C31">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D31">
-        <v>23.23094205467885</v>
+        <v>74.03887633227183</v>
       </c>
       <c r="E31">
-        <v>26.02674282288118</v>
+        <v>83.22385353245407</v>
       </c>
       <c r="F31">
-        <v>5.673829402775547</v>
+        <v>17.80898354110485</v>
       </c>
       <c r="G31">
-        <v>18.2330588708725</v>
+        <v>58.24267176584065</v>
       </c>
       <c r="H31">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I31">
-        <v>526.3718126274315</v>
+        <v>1106.572950214598</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>339.3161154761803</v>
+        <v>651.0514684023033</v>
       </c>
       <c r="C32">
-        <v>1.202349922416833</v>
+        <v>3.844668328992956</v>
       </c>
       <c r="D32">
-        <v>15.89485509004342</v>
+        <v>50.65817854313335</v>
       </c>
       <c r="E32">
-        <v>18.21871997601684</v>
+        <v>58.25669747271786</v>
       </c>
       <c r="F32">
-        <v>3.298738024869504</v>
+        <v>10.35406019831677</v>
       </c>
       <c r="G32">
-        <v>23.70297653213425</v>
+        <v>75.71547329559289</v>
       </c>
       <c r="H32">
-        <v>1.520357231183688</v>
+        <v>4.861537549516219</v>
       </c>
       <c r="I32">
-        <v>403.1541122528449</v>
+        <v>854.7420837905734</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>264.119997839388</v>
+        <v>506.7714281310575</v>
       </c>
       <c r="C33">
-        <v>2.137510973185481</v>
+        <v>6.834965918209701</v>
       </c>
       <c r="D33">
-        <v>16.70997586389181</v>
+        <v>53.25603385303761</v>
       </c>
       <c r="E33">
-        <v>23.74940282587909</v>
+        <v>75.94176634836435</v>
       </c>
       <c r="F33">
-        <v>2.858906288220236</v>
+        <v>8.973518838541198</v>
       </c>
       <c r="G33">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H33">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I33">
-        <v>324.1628022824292</v>
+        <v>698.3766394433005</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>212.5181473617697</v>
+        <v>407.7621002699771</v>
       </c>
       <c r="C34">
-        <v>1.469538794065018</v>
+        <v>4.699039068769168</v>
       </c>
       <c r="D34">
-        <v>13.44949276849828</v>
+        <v>42.8646126134205</v>
       </c>
       <c r="E34">
-        <v>15.2907114084427</v>
+        <v>48.89401395031678</v>
       </c>
       <c r="F34">
-        <v>1.627377425602288</v>
+        <v>5.10800303116961</v>
       </c>
       <c r="G34">
-        <v>12.76314120961075</v>
+        <v>40.76987023608846</v>
       </c>
       <c r="H34">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I34">
-        <v>257.7265518604622</v>
+        <v>552.0422541895482</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>151.2409499195981</v>
+        <v>290.1885234349435</v>
       </c>
       <c r="C35">
-        <v>2.003916537361389</v>
+        <v>6.407780548321593</v>
       </c>
       <c r="D35">
-        <v>10.18900967310476</v>
+        <v>32.47319137380344</v>
       </c>
       <c r="E35">
-        <v>9.109359988008418</v>
+        <v>29.12834873635893</v>
       </c>
       <c r="F35">
-        <v>1.407461557277655</v>
+        <v>4.417732351281822</v>
       </c>
       <c r="G35">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H35">
-        <v>0.9122143387102126</v>
+        <v>2.916922529709732</v>
       </c>
       <c r="I35">
-        <v>188.5377061672148</v>
+        <v>409.2145027987995</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>90.30323833583186</v>
+        <v>173.2663237568912</v>
       </c>
       <c r="C36">
-        <v>2.605091498569805</v>
+        <v>8.330114712818071</v>
       </c>
       <c r="D36">
-        <v>3.668043482317712</v>
+        <v>11.69034889456923</v>
       </c>
       <c r="E36">
-        <v>5.530682849862253</v>
+        <v>17.68506887564649</v>
       </c>
       <c r="F36">
-        <v>1.319495209947801</v>
+        <v>4.14162407932671</v>
       </c>
       <c r="G36">
-        <v>10.02818237897987</v>
+        <v>32.03346947121237</v>
       </c>
       <c r="H36">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I36">
-        <v>113.7588052017461</v>
+        <v>248.1192573003673</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>72.31048784034657</v>
+        <v>138.743334436909</v>
       </c>
       <c r="C37">
-        <v>1.937119319449342</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D37">
-        <v>3.260483095393523</v>
+        <v>10.3914212396171</v>
       </c>
       <c r="E37">
-        <v>3.578677138146163</v>
+        <v>11.44327986071244</v>
       </c>
       <c r="F37">
-        <v>1.231528862617948</v>
+        <v>3.865515807371594</v>
       </c>
       <c r="G37">
-        <v>11.85148826606713</v>
+        <v>37.85773664779644</v>
       </c>
       <c r="H37">
-        <v>1.520357231183688</v>
+        <v>4.861537549516219</v>
       </c>
       <c r="I37">
-        <v>95.69014175320436</v>
+        <v>213.3570134053004</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>38.02241614140289</v>
+        <v>72.95424158184886</v>
       </c>
       <c r="C38">
-        <v>2.271105409009574</v>
+        <v>7.262151288097806</v>
       </c>
       <c r="D38">
-        <v>2.445362321545142</v>
+        <v>7.79356592971282</v>
       </c>
       <c r="E38">
-        <v>0.6506685705720299</v>
+        <v>2.080596338311352</v>
       </c>
       <c r="F38">
-        <v>1.143562515288095</v>
+        <v>3.589407535416482</v>
       </c>
       <c r="G38">
-        <v>20.05636475795975</v>
+        <v>64.06693894242474</v>
       </c>
       <c r="H38">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I38">
-        <v>64.89355116201421</v>
+        <v>158.7192091257153</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>25.12195352199833</v>
+        <v>48.20190961657873</v>
       </c>
       <c r="C39">
-        <v>1.269147140328879</v>
+        <v>4.058261013937011</v>
       </c>
       <c r="D39">
-        <v>2.445362321545142</v>
+        <v>7.79356592971282</v>
       </c>
       <c r="E39">
-        <v>0.6506685705720299</v>
+        <v>2.080596338311352</v>
       </c>
       <c r="F39">
-        <v>0.7037307786388276</v>
+        <v>2.208866175640911</v>
       </c>
       <c r="G39">
-        <v>13.67479415315437</v>
+        <v>43.68200382438049</v>
       </c>
       <c r="H39">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I39">
-        <v>44.16972793247432</v>
+        <v>108.9975104084646</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>25.12195352199833</v>
+        <v>48.20190961657873</v>
       </c>
       <c r="C40">
-        <v>0.8015666149445554</v>
+        <v>2.563112219328637</v>
       </c>
       <c r="D40">
-        <v>2.852922708469332</v>
+        <v>9.092493584664957</v>
       </c>
       <c r="E40">
-        <v>1.95200571171609</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F40">
-        <v>1.187545688953021</v>
+        <v>3.727461671394038</v>
       </c>
       <c r="G40">
-        <v>21.879670645047</v>
+        <v>69.8912061190088</v>
       </c>
       <c r="H40">
-        <v>0.3040714462367375</v>
+        <v>0.972307509903244</v>
       </c>
       <c r="I40">
-        <v>54.09973633736508</v>
+        <v>140.6902797358125</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>57.88233885811783</v>
+        <v>111.0598052652253</v>
       </c>
       <c r="C41">
-        <v>0.6679721791204629</v>
+        <v>2.135926849440531</v>
       </c>
       <c r="D41">
-        <v>6.928526577711237</v>
+        <v>22.08177013418633</v>
       </c>
       <c r="E41">
-        <v>1.95200571171609</v>
+        <v>6.241789014934056</v>
       </c>
       <c r="F41">
-        <v>1.847293293926922</v>
+        <v>5.798273711057393</v>
       </c>
       <c r="G41">
-        <v>41.93603540300674</v>
+        <v>133.9581450614335</v>
       </c>
       <c r="H41">
-        <v>0.6081428924734751</v>
+        <v>1.944615019806488</v>
       </c>
       <c r="I41">
-        <v>111.8223149160728</v>
+        <v>283.2203250560836</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>122.8938807427486</v>
+        <v>235.7985308270474</v>
       </c>
       <c r="C42">
-        <v>0.2003916537361388</v>
+        <v>0.6407780548321593</v>
       </c>
       <c r="D42">
-        <v>9.373888899256382</v>
+        <v>29.87533606389914</v>
       </c>
       <c r="E42">
-        <v>13.01337141144059</v>
+        <v>41.61192676622704</v>
       </c>
       <c r="F42">
-        <v>3.694586587853844</v>
+        <v>11.59654742211479</v>
       </c>
       <c r="G42">
-        <v>46.49430012072487</v>
+        <v>148.5188130028937</v>
       </c>
       <c r="H42">
-        <v>1.21628578494695</v>
+        <v>3.889230039612976</v>
       </c>
       <c r="I42">
-        <v>196.8867052007074</v>
+        <v>471.9311621766271</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>227.6252680608093</v>
+        <v>436.748383755622</v>
       </c>
       <c r="C43">
-        <v>0.935161050768648</v>
+        <v>2.990297589216744</v>
       </c>
       <c r="D43">
-        <v>22.82338166775466</v>
+        <v>72.73994867731966</v>
       </c>
       <c r="E43">
-        <v>31.23209138745743</v>
+        <v>99.86862423894489</v>
       </c>
       <c r="F43">
-        <v>8.004937607016664</v>
+        <v>25.12585274791537</v>
       </c>
       <c r="G43">
-        <v>64.7273589915974</v>
+        <v>206.7614847687343</v>
       </c>
       <c r="H43">
-        <v>4.257000247314326</v>
+        <v>13.61230513864542</v>
       </c>
       <c r="I43">
-        <v>359.6051990127184</v>
+        <v>857.8468969163984</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>384.9769634317043</v>
+        <v>738.6616960162205</v>
       </c>
       <c r="C44">
-        <v>0.8015666149445554</v>
+        <v>2.563112219328637</v>
       </c>
       <c r="D44">
-        <v>26.49142515007237</v>
+        <v>84.43029757188886</v>
       </c>
       <c r="E44">
-        <v>36.43743995203367</v>
+        <v>116.5133949454357</v>
       </c>
       <c r="F44">
-        <v>8.532735690995784</v>
+        <v>26.78250237964606</v>
       </c>
       <c r="G44">
-        <v>89.34198846727527</v>
+        <v>285.3890916526191</v>
       </c>
       <c r="H44">
-        <v>6.385500370971489</v>
+        <v>20.41845770796812</v>
       </c>
       <c r="I44">
-        <v>552.9676196779974</v>
+        <v>1274.758552493107</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>435.3906134049037</v>
+        <v>835.3912038278679</v>
       </c>
       <c r="C45">
-        <v>2.33790262692162</v>
+        <v>7.475743973041859</v>
       </c>
       <c r="D45">
-        <v>32.19727056701104</v>
+        <v>102.6152847412188</v>
       </c>
       <c r="E45">
-        <v>26.02674282288118</v>
+        <v>83.22385353245407</v>
       </c>
       <c r="F45">
-        <v>9.632315032618951</v>
+        <v>30.23385577908499</v>
       </c>
       <c r="G45">
-        <v>97.54686495916785</v>
+        <v>311.5982939472476</v>
       </c>
       <c r="H45">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I45">
-        <v>608.3009239995289</v>
+        <v>1387.06746346927</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>348.6519765823282</v>
+        <v>668.9643402192748</v>
       </c>
       <c r="C46">
-        <v>2.87228037021799</v>
+        <v>9.184485452594283</v>
       </c>
       <c r="D46">
-        <v>37.49555559702553</v>
+        <v>119.5013442555965</v>
       </c>
       <c r="E46">
-        <v>18.21871997601684</v>
+        <v>58.25669747271786</v>
       </c>
       <c r="F46">
-        <v>11.65554102120558</v>
+        <v>36.58434603405259</v>
       </c>
       <c r="G46">
-        <v>148.5994297976109</v>
+        <v>474.6777748916013</v>
       </c>
       <c r="H46">
-        <v>5.169214586024539</v>
+        <v>16.52922766835515</v>
       </c>
       <c r="I46">
-        <v>572.6627179304295</v>
+        <v>1383.698215994192</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>263.2712831933745</v>
+        <v>505.1429852386055</v>
       </c>
       <c r="C47">
-        <v>3.206266459778222</v>
+        <v>10.25244887731455</v>
       </c>
       <c r="D47">
-        <v>27.71410631084495</v>
+        <v>88.32708053674533</v>
       </c>
       <c r="E47">
-        <v>12.03736855558255</v>
+        <v>38.49103225876003</v>
       </c>
       <c r="F47">
-        <v>12.44723814717426</v>
+        <v>39.06932048164863</v>
       </c>
       <c r="G47">
-        <v>113.0449649994095</v>
+        <v>361.104564948212</v>
       </c>
       <c r="H47">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I47">
-        <v>435.6741564672415</v>
+        <v>1055.027429970028</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>271.5886867243063</v>
+        <v>521.1017255846344</v>
       </c>
       <c r="C48">
-        <v>1.937119319449342</v>
+        <v>6.19418786337754</v>
       </c>
       <c r="D48">
-        <v>30.1594686323901</v>
+        <v>96.12064646645811</v>
       </c>
       <c r="E48">
-        <v>13.33870569672661</v>
+        <v>42.6522249353827</v>
       </c>
       <c r="F48">
-        <v>12.71113718916382</v>
+        <v>39.89764529751398</v>
       </c>
       <c r="G48">
-        <v>162.2742239507652</v>
+        <v>518.3597787159817</v>
       </c>
       <c r="H48">
-        <v>3.344785908604113</v>
+        <v>10.69538260893568</v>
       </c>
       <c r="I48">
-        <v>495.3541274214055</v>
+        <v>1235.021591472284</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>280.2455761136435</v>
+        <v>537.7118430876451</v>
       </c>
       <c r="C49">
-        <v>2.738685934393897</v>
+        <v>8.757300082706179</v>
       </c>
       <c r="D49">
-        <v>23.23094205467885</v>
+        <v>74.03887633227183</v>
       </c>
       <c r="E49">
-        <v>14.31470855258465</v>
+        <v>45.77311944284975</v>
       </c>
       <c r="F49">
-        <v>8.09290395434652</v>
+        <v>25.40196101987048</v>
       </c>
       <c r="G49">
-        <v>98.45851790271152</v>
+        <v>314.5104275355395</v>
       </c>
       <c r="H49">
-        <v>3.952928801077588</v>
+        <v>12.63999762874217</v>
       </c>
       <c r="I49">
-        <v>431.0342633134365</v>
+        <v>1018.833525129625</v>
       </c>
     </row>
   </sheetData>
